--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_3_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_3_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1344712.092094422</v>
+        <v>-1345424.393917465</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.719915999</v>
+        <v>167214.7199159989</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058539</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1224,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>2.817899082923868</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>3.199249640013477</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>172.0572332281109</v>
+        <v>80.28702624117732</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891593</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.497933319247</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.418386398459546</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554826</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240811</v>
+        <v>62.86150506240818</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538024</v>
+        <v>49.36873040538032</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675133</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958181</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416382</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371297978</v>
+        <v>9.369887371298034</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161048</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>188.4979333192472</v>
+        <v>188.497933319247</v>
       </c>
       <c r="T12" t="n">
-        <v>188.4979333192472</v>
+        <v>97.5282484740909</v>
       </c>
       <c r="U12" t="n">
-        <v>102.8299212877428</v>
+        <v>59.07980534382072</v>
       </c>
       <c r="V12" t="n">
-        <v>62.5006567623343</v>
+        <v>62.50065676233436</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394365</v>
+        <v>88.55631942394371</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640266</v>
+        <v>39.16465028640272</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095767</v>
+        <v>45.23602198095773</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256618</v>
+        <v>25.28169700256625</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311262</v>
+        <v>57.28978021311269</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725507</v>
+        <v>45.61329429725512</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154977</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138196</v>
+        <v>66.96075103138202</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362674</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517459</v>
+        <v>43.77119125517464</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110048</v>
+        <v>38.99300866110053</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>105.681344775314</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I14" t="n">
-        <v>62.8615050624082</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.36873040538034</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.3176172467514</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958189</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.748199672699</v>
+        <v>98.83091405683419</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>25.41043120802041</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.4751703839026</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161048</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693645</v>
+        <v>53.2723121702652</v>
       </c>
       <c r="T15" t="n">
         <v>36.82265945242242</v>
@@ -1749,10 +1749,10 @@
         <v>88.55631942394373</v>
       </c>
       <c r="X15" t="n">
-        <v>188.4979333192472</v>
+        <v>39.16465028640275</v>
       </c>
       <c r="Y15" t="n">
-        <v>188.4979333192472</v>
+        <v>45.23602198095776</v>
       </c>
     </row>
     <row r="16">
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256626</v>
+        <v>25.28169700256628</v>
       </c>
       <c r="S16" t="n">
         <v>57.28978021311271</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D17" t="n">
         <v>40.32448871524281</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7515787130292</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G17" t="n">
         <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.5737276815661</v>
+        <v>49.57372768156617</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>87.20213173782722</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161037</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>188.4979333192472</v>
+        <v>159.1649029706118</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F20" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G20" t="n">
         <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.5737276815661</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.5395320931418</v>
       </c>
       <c r="I21" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,16 +2202,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>82.77356979503018</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F23" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G23" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>24.4397230043541</v>
+        <v>188.497933319247</v>
       </c>
       <c r="V24" t="n">
-        <v>188.4979333192471</v>
+        <v>33.42399920765758</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.497933319247</v>
       </c>
       <c r="X24" t="n">
-        <v>188.4979333192471</v>
+        <v>188.497933319247</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444722</v>
+        <v>14.03224403444725</v>
       </c>
       <c r="T26" t="n">
         <v>8.981130875818309</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>44.49774663357802</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>117.2774364048498</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.48617308148932</v>
+        <v>1.486173081489321</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280694968886</v>
+        <v>23.74331897288765</v>
       </c>
       <c r="V27" t="n">
         <v>27.16417039140129</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21983305301063</v>
       </c>
       <c r="X27" t="n">
         <v>3.828163915469645</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217961</v>
       </c>
       <c r="T28" t="n">
         <v>10.27680792632205</v>
@@ -2810,7 +2810,7 @@
         <v>133.5366480845495</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147504</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444717</v>
+        <v>14.03224403444718</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818238</v>
+        <v>8.981130875818241</v>
       </c>
       <c r="U29" t="n">
         <v>36.66579096864874</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>72.55347035709143</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,16 +2913,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489263</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U30" t="n">
         <v>23.74331897288759</v>
@@ -2937,7 +2937,7 @@
         <v>3.828163915469588</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>93.52542390428906</v>
       </c>
     </row>
     <row r="31">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758295</v>
+        <v>13.20453416758298</v>
       </c>
       <c r="T32" t="n">
         <v>8.153421008954041</v>
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3150,19 +3150,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250519</v>
+        <v>0.6584632146250529</v>
       </c>
       <c r="U33" t="n">
-        <v>224.498552655648</v>
+        <v>22.91560910602338</v>
       </c>
       <c r="V33" t="n">
         <v>26.33646052453702</v>
@@ -3171,7 +3171,7 @@
         <v>52.39212318614636</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605377</v>
+        <v>141.5646181408315</v>
       </c>
       <c r="Y33" t="n">
         <v>9.071825743160389</v>
@@ -3238,7 +3238,7 @@
         <v>21.12558397531534</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457782</v>
+        <v>9.449098059457784</v>
       </c>
       <c r="U34" t="n">
         <v>74.34409657770038</v>
@@ -3348,25 +3348,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>149.6202770434112</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>29.55481378129818</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3594,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>36.97207935338371</v>
       </c>
       <c r="W39" t="n">
-        <v>91.92888590347501</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>123.4012861628699</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>99.92148881521975</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4065,19 +4065,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,19 +4098,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>119.7963281147483</v>
       </c>
       <c r="T45" t="n">
-        <v>136.8226667351045</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>25.69481436153555</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="D8" t="n">
         <v>6.719070557086891</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="C9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="D9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="E9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="F9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="G9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="H9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="I9" t="n">
         <v>0.2559399712010781</v>
@@ -4887,13 +4887,13 @@
         <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="M9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="N9" t="n">
-        <v>6.462484272827225</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O9" t="n">
         <v>9.629741416440567</v>
@@ -4902,31 +4902,31 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="R9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="S9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="T9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="U9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="V9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="W9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="X9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.333867974168094</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>586.6294858106114</v>
+        <v>520.6551872698988</v>
       </c>
       <c r="C11" t="n">
-        <v>412.8343007317116</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="D11" t="n">
-        <v>251.5980426618532</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="E11" t="n">
-        <v>251.5980426618532</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="F11" t="n">
-        <v>251.5980426618532</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="G11" t="n">
-        <v>249.1552281179547</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554799</v>
+        <v>78.57630442554805</v>
       </c>
       <c r="I11" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021289</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>115.4902538590853</v>
+        <v>115.4902538590856</v>
       </c>
       <c r="L11" t="n">
-        <v>162.2110963398454</v>
+        <v>162.2110963398456</v>
       </c>
       <c r="M11" t="n">
-        <v>243.0729954267926</v>
+        <v>243.0729954267927</v>
       </c>
       <c r="N11" t="n">
         <v>318.400888562485</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485397</v>
+        <v>505.0138425485395</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324991</v>
+        <v>666.4395714324987</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769882</v>
       </c>
       <c r="R11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769882</v>
       </c>
       <c r="S11" t="n">
-        <v>704.1243288271096</v>
+        <v>704.1243288271091</v>
       </c>
       <c r="T11" t="n">
-        <v>659.3590588808961</v>
+        <v>704.1243288271091</v>
       </c>
       <c r="U11" t="n">
-        <v>586.6294858106114</v>
+        <v>704.1243288271091</v>
       </c>
       <c r="V11" t="n">
-        <v>586.6294858106114</v>
+        <v>704.1243288271091</v>
       </c>
       <c r="W11" t="n">
-        <v>586.6294858106114</v>
+        <v>704.1243288271091</v>
       </c>
       <c r="X11" t="n">
-        <v>586.6294858106114</v>
+        <v>520.6551872698988</v>
       </c>
       <c r="Y11" t="n">
-        <v>586.6294858106114</v>
+        <v>520.6551872698988</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.54436736382056</v>
+        <v>24.54436736382061</v>
       </c>
       <c r="C12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="D12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="E12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="J12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137993</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998544</v>
+        <v>538.665680399854</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188883</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769882</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596542</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596542</v>
+        <v>610.9722821019996</v>
       </c>
       <c r="S12" t="n">
-        <v>556.6509361119298</v>
+        <v>420.5703292542753</v>
       </c>
       <c r="T12" t="n">
-        <v>366.2489832642054</v>
+        <v>322.0569469572138</v>
       </c>
       <c r="U12" t="n">
-        <v>262.3803759028491</v>
+        <v>262.3803759028494</v>
       </c>
       <c r="V12" t="n">
-        <v>199.2483993752387</v>
+        <v>199.2483993752389</v>
       </c>
       <c r="W12" t="n">
-        <v>109.7975716742855</v>
+        <v>109.7975716742857</v>
       </c>
       <c r="X12" t="n">
-        <v>70.2373188597374</v>
+        <v>70.23731885973751</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.54436736382056</v>
+        <v>24.54436736382061</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="C13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="D13" t="n">
-        <v>15.07983466553977</v>
+        <v>47.71579242887337</v>
       </c>
       <c r="E13" t="n">
-        <v>15.07983466553977</v>
+        <v>47.71579242887337</v>
       </c>
       <c r="F13" t="n">
-        <v>53.90900278081485</v>
+        <v>86.5449605441484</v>
       </c>
       <c r="G13" t="n">
-        <v>53.90900278081485</v>
+        <v>86.5449605441484</v>
       </c>
       <c r="H13" t="n">
-        <v>53.90900278081485</v>
+        <v>98.74558837756568</v>
       </c>
       <c r="I13" t="n">
-        <v>67.07134590506672</v>
+        <v>111.9079315018175</v>
       </c>
       <c r="J13" t="n">
-        <v>67.07134590506672</v>
+        <v>169.2375015062748</v>
       </c>
       <c r="K13" t="n">
-        <v>67.07134590506672</v>
+        <v>169.2375015062748</v>
       </c>
       <c r="L13" t="n">
-        <v>211.6078293309069</v>
+        <v>221.4421490729808</v>
       </c>
       <c r="M13" t="n">
-        <v>211.6078293309069</v>
+        <v>221.4421490729808</v>
       </c>
       <c r="N13" t="n">
-        <v>371.6196550468557</v>
+        <v>381.4539747889295</v>
       </c>
       <c r="O13" t="n">
-        <v>371.6196550468557</v>
+        <v>520.7166611426676</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351821</v>
+        <v>520.7166611426676</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.716661142667</v>
+        <v>520.7166611426676</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633073</v>
+        <v>495.1795934633077</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015774</v>
+        <v>437.3111286015777</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578853</v>
+        <v>391.2370939578856</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604129</v>
+        <v>279.6125557604132</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064918</v>
+        <v>211.9754335064919</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117114</v>
+        <v>98.68003660117125</v>
       </c>
       <c r="X13" t="n">
-        <v>54.4667121009948</v>
+        <v>54.46671210099485</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>375.7270903796503</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="C14" t="n">
-        <v>375.7270903796503</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="D14" t="n">
-        <v>375.7270903796503</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="E14" t="n">
-        <v>375.7270903796503</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="F14" t="n">
-        <v>185.3251375319259</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="G14" t="n">
-        <v>185.3251375319259</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554806</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
@@ -5279,49 +5279,49 @@
         <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>127.9904616471779</v>
+        <v>285.1396746888279</v>
       </c>
       <c r="L14" t="n">
-        <v>314.6034156332326</v>
+        <v>471.7526286748825</v>
       </c>
       <c r="M14" t="n">
-        <v>395.4653147201798</v>
+        <v>552.6145277618297</v>
       </c>
       <c r="N14" t="n">
-        <v>470.7932078558722</v>
+        <v>627.942420897522</v>
       </c>
       <c r="O14" t="n">
-        <v>505.0138425485399</v>
+        <v>662.1630555901896</v>
       </c>
       <c r="P14" t="n">
         <v>666.4395714324992</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="S14" t="n">
-        <v>753.9917332769886</v>
+        <v>704.1243288271094</v>
       </c>
       <c r="T14" t="n">
-        <v>753.9917332769886</v>
+        <v>659.3590588808959</v>
       </c>
       <c r="U14" t="n">
-        <v>681.262160206704</v>
+        <v>659.3590588808959</v>
       </c>
       <c r="V14" t="n">
-        <v>537.0889082308614</v>
+        <v>659.3590588808959</v>
       </c>
       <c r="W14" t="n">
-        <v>375.7270903796503</v>
+        <v>559.5298527628813</v>
       </c>
       <c r="X14" t="n">
-        <v>375.7270903796503</v>
+        <v>376.060711205671</v>
       </c>
       <c r="Y14" t="n">
-        <v>375.7270903796503</v>
+        <v>376.060711205671</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.2166922041469</v>
+        <v>358.5352875251621</v>
       </c>
       <c r="C15" t="n">
-        <v>93.75215950586606</v>
+        <v>349.0707548268812</v>
       </c>
       <c r="D15" t="n">
-        <v>93.75215950586606</v>
+        <v>349.0707548268812</v>
       </c>
       <c r="E15" t="n">
-        <v>68.08505727554241</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="F15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J15" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142008</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M15" t="n">
         <v>352.0527264137996</v>
@@ -5382,25 +5382,25 @@
         <v>747.0528889596541</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4745786900213</v>
+        <v>693.2424726260529</v>
       </c>
       <c r="T15" t="n">
-        <v>696.2799731825239</v>
+        <v>656.0478671185555</v>
       </c>
       <c r="U15" t="n">
-        <v>636.6034021281595</v>
+        <v>596.371296064191</v>
       </c>
       <c r="V15" t="n">
-        <v>573.471425600549</v>
+        <v>533.2393195365805</v>
       </c>
       <c r="W15" t="n">
-        <v>484.0205978995957</v>
+        <v>443.7884918356273</v>
       </c>
       <c r="X15" t="n">
-        <v>293.6186450518713</v>
+        <v>404.228239021079</v>
       </c>
       <c r="Y15" t="n">
-        <v>103.2166922041469</v>
+        <v>358.5352875251621</v>
       </c>
     </row>
     <row r="16">
@@ -5416,43 +5416,43 @@
         <v>15.07983466553977</v>
       </c>
       <c r="D16" t="n">
-        <v>47.71579242887335</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E16" t="n">
-        <v>47.71579242887335</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F16" t="n">
-        <v>47.71579242887335</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G16" t="n">
-        <v>47.71579242887335</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H16" t="n">
-        <v>47.71579242887335</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I16" t="n">
-        <v>60.87813555312513</v>
+        <v>28.24217778979155</v>
       </c>
       <c r="J16" t="n">
-        <v>60.87813555312513</v>
+        <v>85.57174779424885</v>
       </c>
       <c r="K16" t="n">
-        <v>170.8852367268642</v>
+        <v>85.57174779424885</v>
       </c>
       <c r="L16" t="n">
-        <v>170.8852367268642</v>
+        <v>230.1082312200889</v>
       </c>
       <c r="M16" t="n">
-        <v>170.8852367268642</v>
+        <v>381.5103159867215</v>
       </c>
       <c r="N16" t="n">
-        <v>212.5590407811539</v>
+        <v>381.5103159867215</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8217271348921</v>
+        <v>381.5103159867215</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351829</v>
+        <v>499.9832845870122</v>
       </c>
       <c r="Q16" t="n">
         <v>520.7166611426677</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961941</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040791</v>
+        <v>410.1015905040786</v>
       </c>
       <c r="D17" t="n">
         <v>369.3697837210055</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718623</v>
       </c>
       <c r="F17" t="n">
         <v>187.7709757940551</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116211</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993311</v>
+        <v>70.95335735993302</v>
       </c>
       <c r="J17" t="n">
-        <v>70.95335735993311</v>
+        <v>70.95335735993302</v>
       </c>
       <c r="K17" t="n">
-        <v>70.95335735993311</v>
+        <v>70.95335735993302</v>
       </c>
       <c r="L17" t="n">
-        <v>117.6741998406932</v>
+        <v>117.674199840693</v>
       </c>
       <c r="M17" t="n">
-        <v>198.5360989276405</v>
+        <v>198.5360989276402</v>
       </c>
       <c r="N17" t="n">
-        <v>273.8639920633329</v>
+        <v>273.8639920633324</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0846267560006</v>
+        <v>308.0846267560001</v>
       </c>
       <c r="P17" t="n">
-        <v>494.6975807420553</v>
+        <v>308.0846267560001</v>
       </c>
       <c r="Q17" t="n">
-        <v>583.2198993829662</v>
+        <v>462.1637696110813</v>
       </c>
       <c r="R17" t="n">
-        <v>684.7603636721377</v>
+        <v>563.7042339002527</v>
       </c>
       <c r="S17" t="n">
-        <v>753.9917332769886</v>
+        <v>632.9356035051036</v>
       </c>
       <c r="T17" t="n">
-        <v>753.9917332769886</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879305</v>
+        <v>730.3229325879303</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530775</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122032</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>230.1683764065512</v>
+        <v>407.7444067694745</v>
       </c>
       <c r="C18" t="n">
-        <v>230.1683764065512</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="D18" t="n">
-        <v>142.0854150552106</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="E18" t="n">
-        <v>142.0854150552106</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="F18" t="n">
-        <v>142.0854150552106</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="G18" t="n">
-        <v>142.0854150552106</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="H18" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142008</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137994</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998541</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188884</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0528889596542</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="R18" t="n">
-        <v>610.972282102</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="S18" t="n">
-        <v>610.972282102</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="T18" t="n">
-        <v>610.972282102</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="U18" t="n">
-        <v>420.5703292542756</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="V18" t="n">
-        <v>230.1683764065512</v>
+        <v>586.2802596964095</v>
       </c>
       <c r="W18" t="n">
-        <v>230.1683764065512</v>
+        <v>586.2802596964095</v>
       </c>
       <c r="X18" t="n">
-        <v>230.1683764065512</v>
+        <v>586.2802596964095</v>
       </c>
       <c r="Y18" t="n">
-        <v>230.1683764065512</v>
+        <v>586.2802596964095</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961939</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040791</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210055</v>
+        <v>369.3697837210048</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718617</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940553</v>
+        <v>187.7709757940547</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116211</v>
+        <v>65.15430707116214</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993311</v>
+        <v>70.95335735993302</v>
       </c>
       <c r="J20" t="n">
-        <v>70.95335735993311</v>
+        <v>225.0325002150142</v>
       </c>
       <c r="K20" t="n">
-        <v>70.95335735993311</v>
+        <v>225.0325002150142</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6741998406932</v>
+        <v>271.7533426957742</v>
       </c>
       <c r="M20" t="n">
-        <v>198.5360989276404</v>
+        <v>352.6152417827214</v>
       </c>
       <c r="N20" t="n">
-        <v>273.8639920633327</v>
+        <v>427.9431349184136</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0846267560004</v>
+        <v>462.1637696110813</v>
       </c>
       <c r="P20" t="n">
-        <v>308.0846267560004</v>
+        <v>462.1637696110813</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.1637696110814</v>
+        <v>462.1637696110813</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002528</v>
+        <v>563.7042339002527</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051037</v>
+        <v>632.9356035051036</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369972</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="V20" t="n">
         <v>730.3229325879303</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530775</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>336.9606627946492</v>
+        <v>568.517036032719</v>
       </c>
       <c r="C21" t="n">
-        <v>336.9606627946492</v>
+        <v>568.517036032719</v>
       </c>
       <c r="D21" t="n">
-        <v>336.9606627946492</v>
+        <v>407.7369197937508</v>
       </c>
       <c r="E21" t="n">
-        <v>336.9606627946492</v>
+        <v>234.1737159151652</v>
       </c>
       <c r="F21" t="n">
-        <v>176.5329465118933</v>
+        <v>234.1737159151652</v>
       </c>
       <c r="G21" t="n">
-        <v>176.5329465118933</v>
+        <v>234.1737159151652</v>
       </c>
       <c r="H21" t="n">
-        <v>176.5329465118933</v>
+        <v>123.5277239018907</v>
       </c>
       <c r="I21" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J21" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142028</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M21" t="n">
         <v>352.0527264137996</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596542</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="R21" t="n">
-        <v>610.972282102</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="S21" t="n">
-        <v>420.5703292542756</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="T21" t="n">
-        <v>336.9606627946492</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="U21" t="n">
-        <v>336.9606627946492</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="V21" t="n">
-        <v>336.9606627946492</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="W21" t="n">
-        <v>336.9606627946492</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="X21" t="n">
-        <v>336.9606627946492</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="Y21" t="n">
-        <v>336.9606627946492</v>
+        <v>747.0528889596541</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961941</v>
+        <v>463.3923242961939</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040787</v>
+        <v>410.1015905040783</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210051</v>
+        <v>369.3697837210047</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718615</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940543</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116208</v>
+        <v>65.15430707116212</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07983466553977</v>
+        <v>38.41954622895938</v>
       </c>
       <c r="J23" t="n">
-        <v>15.07983466553977</v>
+        <v>38.41954622895938</v>
       </c>
       <c r="K23" t="n">
-        <v>15.07983466553977</v>
+        <v>38.41954622895938</v>
       </c>
       <c r="L23" t="n">
-        <v>61.80067714629985</v>
+        <v>85.14038870971939</v>
       </c>
       <c r="M23" t="n">
-        <v>142.6625762332471</v>
+        <v>166.0022877966665</v>
       </c>
       <c r="N23" t="n">
-        <v>217.9904693689394</v>
+        <v>241.3301809323588</v>
       </c>
       <c r="O23" t="n">
-        <v>252.2111040616071</v>
+        <v>275.5508156250264</v>
       </c>
       <c r="P23" t="n">
-        <v>344.7821852298773</v>
+        <v>275.5508156250264</v>
       </c>
       <c r="Q23" t="n">
-        <v>531.395139215932</v>
+        <v>462.163769611081</v>
       </c>
       <c r="R23" t="n">
-        <v>632.9356035051035</v>
+        <v>563.7042339002523</v>
       </c>
       <c r="S23" t="n">
-        <v>632.9356035051035</v>
+        <v>632.9356035051032</v>
       </c>
       <c r="T23" t="n">
-        <v>707.167575136997</v>
+        <v>707.1675751369968</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769882</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879302</v>
+        <v>730.3229325879299</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235035</v>
+        <v>689.4655660235032</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530775</v>
+        <v>626.5008757530773</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122033</v>
+        <v>540.8060308122029</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.07983466553977</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="C24" t="n">
-        <v>15.07983466553977</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="D24" t="n">
-        <v>15.07983466553977</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="E24" t="n">
-        <v>15.07983466553977</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="F24" t="n">
-        <v>15.07983466553977</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07983466553977</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142012</v>
+        <v>53.04316068141998</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097942</v>
+        <v>170.376079809794</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137993</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998542</v>
+        <v>538.665680399854</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188883</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769882</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.052888959654</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="R24" t="n">
-        <v>610.9722821019998</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="S24" t="n">
-        <v>610.9722821019998</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="T24" t="n">
-        <v>610.9722821019998</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="U24" t="n">
-        <v>586.2856932087128</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="V24" t="n">
-        <v>395.8837403609884</v>
+        <v>522.8893207506592</v>
       </c>
       <c r="W24" t="n">
-        <v>395.8837403609884</v>
+        <v>332.4873679029349</v>
       </c>
       <c r="X24" t="n">
-        <v>205.4817875132641</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.07983466553977</v>
+        <v>142.0854150552106</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874113</v>
+        <v>882.7966579874114</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942534</v>
+        <v>757.2538204942535</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350259</v>
+        <v>597.663758335026</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471345</v>
+        <v>406.0329511471346</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141569</v>
+        <v>198.605251714157</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845027</v>
+        <v>63.71974859845025</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589549</v>
+        <v>171.2527996589548</v>
       </c>
       <c r="K26" t="n">
         <v>375.9427824528777</v>
@@ -6233,7 +6233,7 @@
         <v>634.0135279523988</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581069</v>
+        <v>926.2253300581068</v>
       </c>
       <c r="N26" t="n">
         <v>1212.90312621256</v>
@@ -6242,7 +6242,7 @@
         <v>1458.473663923989</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315171</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.417797666885</v>
@@ -6254,7 +6254,7 @@
         <v>1781.660986883924</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.58913751441</v>
       </c>
       <c r="U26" t="n">
         <v>1735.552985020827</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>241.291634519694</v>
+        <v>375.5760489090741</v>
       </c>
       <c r="C27" t="n">
-        <v>241.291634519694</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="D27" t="n">
-        <v>241.291634519694</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="E27" t="n">
-        <v>241.291634519694</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="F27" t="n">
-        <v>80.86391823693805</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102243</v>
+        <v>73.88002543102237</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593964</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8895911634019</v>
+        <v>372.8895911634017</v>
       </c>
       <c r="N27" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741609</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931952</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512952</v>
+        <v>674.6585634766993</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512952</v>
+        <v>674.6585634766993</v>
       </c>
       <c r="T27" t="n">
-        <v>791.6194355204979</v>
+        <v>673.157378545902</v>
       </c>
       <c r="U27" t="n">
-        <v>551.995122897378</v>
+        <v>649.1742280682378</v>
       </c>
       <c r="V27" t="n">
-        <v>524.5565669464676</v>
+        <v>621.7356721173273</v>
       </c>
       <c r="W27" t="n">
-        <v>255.1579976767589</v>
+        <v>567.9782649930742</v>
       </c>
       <c r="X27" t="n">
-        <v>251.2911654389108</v>
+        <v>564.111432755226</v>
       </c>
       <c r="Y27" t="n">
-        <v>241.291634519694</v>
+        <v>554.1119018360092</v>
       </c>
     </row>
     <row r="28">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="C28" t="n">
-        <v>79.77730790215298</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="D28" t="n">
-        <v>79.77730790215298</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="E28" t="n">
-        <v>79.77730790215298</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="F28" t="n">
-        <v>79.77730790215298</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="G28" t="n">
-        <v>79.77730790215298</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="H28" t="n">
-        <v>79.77730790215298</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="I28" t="n">
-        <v>79.77730790215298</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77730790215298</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="K28" t="n">
-        <v>79.77730790215298</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="L28" t="n">
-        <v>79.77730790215298</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="M28" t="n">
-        <v>266.1625141760094</v>
+        <v>112.7064240684948</v>
       </c>
       <c r="N28" t="n">
-        <v>266.1625141760094</v>
+        <v>112.7064240684948</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1625141760094</v>
+        <v>112.7064240684948</v>
       </c>
       <c r="P28" t="n">
         <v>266.1625141760094</v>
@@ -6421,13 +6421,13 @@
         <v>125.732036525994</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737341</v>
+        <v>48.1300601973734</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389708</v>
+        <v>39.61015627389707</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874115</v>
+        <v>882.7966579874112</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942537</v>
+        <v>757.2538204942533</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350263</v>
+        <v>597.6637583350259</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471349</v>
+        <v>406.0329511471346</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141576</v>
+        <v>198.6052517141572</v>
       </c>
       <c r="H29" t="n">
-        <v>63.7197485984502</v>
+        <v>63.71974859845022</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514207</v>
@@ -6464,49 +6464,49 @@
         <v>171.2527996589548</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528779</v>
+        <v>375.9427824528778</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523989</v>
+        <v>634.0135279523988</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581075</v>
+        <v>926.2253300581069</v>
       </c>
       <c r="N29" t="n">
         <v>1212.903126212561</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.882514315173</v>
+        <v>1654.882514315172</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.417797666886</v>
+        <v>1777.417797666885</v>
       </c>
       <c r="R29" t="n">
-        <v>1795.834970757104</v>
+        <v>1795.834970757103</v>
       </c>
       <c r="S29" t="n">
         <v>1781.660986883924</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.58913751441</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621683</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>449.9939523478155</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C30" t="n">
-        <v>449.9939523478155</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D30" t="n">
-        <v>289.2138361088473</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E30" t="n">
-        <v>289.2138361088473</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F30" t="n">
-        <v>289.2138361088473</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G30" t="n">
-        <v>289.2138361088473</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H30" t="n">
-        <v>162.2082557191765</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I30" t="n">
-        <v>88.92192202514471</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J30" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102243</v>
+        <v>73.88002543102237</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593964</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8895911634019</v>
+        <v>372.8895911634017</v>
       </c>
       <c r="N30" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741609</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931952</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1817761339607</v>
+        <v>786.1817761339606</v>
       </c>
       <c r="R30" t="n">
-        <v>786.1817761339607</v>
+        <v>650.1011692763063</v>
       </c>
       <c r="S30" t="n">
-        <v>786.1817761339607</v>
+        <v>456.5751174379182</v>
       </c>
       <c r="T30" t="n">
-        <v>784.6805912031635</v>
+        <v>239.4327703616653</v>
       </c>
       <c r="U30" t="n">
-        <v>760.6974407254993</v>
+        <v>215.4496198840011</v>
       </c>
       <c r="V30" t="n">
-        <v>733.258884774589</v>
+        <v>188.0110639330908</v>
       </c>
       <c r="W30" t="n">
-        <v>679.5014776503359</v>
+        <v>134.2536568088377</v>
       </c>
       <c r="X30" t="n">
-        <v>675.6346454124879</v>
+        <v>130.3868245709896</v>
       </c>
       <c r="Y30" t="n">
-        <v>449.9939523478155</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="31">
@@ -6613,25 +6613,25 @@
         <v>35.91669941514207</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91669941514207</v>
+        <v>83.10044875578316</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91669941514207</v>
+        <v>83.10044875578316</v>
       </c>
       <c r="J31" t="n">
-        <v>91.91670631504704</v>
+        <v>175.4131402674643</v>
       </c>
       <c r="K31" t="n">
-        <v>91.91670631504704</v>
+        <v>266.162514176009</v>
       </c>
       <c r="L31" t="n">
-        <v>91.91670631504704</v>
+        <v>266.162514176009</v>
       </c>
       <c r="M31" t="n">
-        <v>91.91670631504704</v>
+        <v>266.162514176009</v>
       </c>
       <c r="N31" t="n">
-        <v>91.91670631504704</v>
+        <v>266.162514176009</v>
       </c>
       <c r="O31" t="n">
         <v>266.162514176009</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510278</v>
+        <v>1014.789988510277</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806682</v>
+        <v>877.5242945806673</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601005</v>
+        <v>752.8175276600995</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734632</v>
+        <v>594.0635360734622</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581619</v>
+        <v>403.2687994581609</v>
       </c>
       <c r="G32" t="n">
         <v>196.6771705977749</v>
@@ -6695,46 +6695,46 @@
         <v>62.62773805465902</v>
       </c>
       <c r="I32" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559495</v>
+        <v>171.8162924559494</v>
       </c>
       <c r="K32" t="n">
-        <v>376.6463603738686</v>
+        <v>377.3257080180679</v>
       </c>
       <c r="L32" t="n">
-        <v>635.5365386415853</v>
+        <v>616.2999327831717</v>
       </c>
       <c r="M32" t="n">
-        <v>928.5677735154891</v>
+        <v>909.3311676570754</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.065002438138</v>
+        <v>1196.828396579724</v>
       </c>
       <c r="O32" t="n">
-        <v>1462.454972917762</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
-        <v>1659.683256077141</v>
+        <v>1640.446650218727</v>
       </c>
       <c r="Q32" t="n">
-        <v>1783.03797219705</v>
+        <v>1763.801366338636</v>
       </c>
       <c r="R32" t="n">
-        <v>1783.03797219705</v>
+        <v>1783.037972197049</v>
       </c>
       <c r="S32" t="n">
-        <v>1769.700058896461</v>
+        <v>1769.70005889646</v>
       </c>
       <c r="T32" t="n">
-        <v>1761.464280099537</v>
+        <v>1761.464280099536</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178543</v>
+        <v>1725.264198178542</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.62043735199</v>
+        <v>1617.620437351989</v>
       </c>
       <c r="W32" t="n">
         <v>1492.788110650069</v>
@@ -6743,7 +6743,7 @@
         <v>1345.848460242149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163781</v>
+        <v>1176.17865516378</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>144.1086486802919</v>
+        <v>530.4317958442507</v>
       </c>
       <c r="C33" t="n">
-        <v>144.1086486802919</v>
+        <v>530.4317958442507</v>
       </c>
       <c r="D33" t="n">
-        <v>144.1086486802919</v>
+        <v>369.6516796052824</v>
       </c>
       <c r="E33" t="n">
-        <v>144.1086486802919</v>
+        <v>196.0884757266969</v>
       </c>
       <c r="F33" t="n">
-        <v>144.1086486802919</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="G33" t="n">
-        <v>144.1086486802919</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="H33" t="n">
-        <v>144.1086486802919</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="I33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982134</v>
+        <v>73.6240854598213</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9570045881954</v>
+        <v>190.9570045881953</v>
       </c>
       <c r="M33" t="n">
-        <v>372.6336511922008</v>
+        <v>372.6336511922007</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029599</v>
+        <v>577.5386276029598</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219942</v>
+        <v>709.2395672219941</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800941</v>
+        <v>792.864680480094</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800941</v>
+        <v>785.9258361627595</v>
       </c>
       <c r="R33" t="n">
-        <v>656.7840736224399</v>
+        <v>785.9258361627595</v>
       </c>
       <c r="S33" t="n">
-        <v>463.2580217840517</v>
+        <v>785.9258361627595</v>
       </c>
       <c r="T33" t="n">
-        <v>462.5929074258446</v>
+        <v>785.2607218045524</v>
       </c>
       <c r="U33" t="n">
-        <v>235.8266926221597</v>
+        <v>762.1136418994782</v>
       </c>
       <c r="V33" t="n">
-        <v>209.2242072438395</v>
+        <v>735.511156521158</v>
       </c>
       <c r="W33" t="n">
-        <v>156.3028706921765</v>
+        <v>682.589819969495</v>
       </c>
       <c r="X33" t="n">
-        <v>153.2721090269185</v>
+        <v>539.5952561908773</v>
       </c>
       <c r="Y33" t="n">
-        <v>144.1086486802919</v>
+        <v>530.4317958442507</v>
       </c>
     </row>
     <row r="34">
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.98934377257916</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="C34" t="n">
-        <v>119.3660703972831</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="D34" t="n">
-        <v>187.8045824360361</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="E34" t="n">
-        <v>259.7145384228899</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="F34" t="n">
-        <v>259.7145384228899</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="G34" t="n">
-        <v>259.7145384228899</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="H34" t="n">
-        <v>259.7145384228899</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="I34" t="n">
-        <v>259.7145384228899</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J34" t="n">
-        <v>259.7145384228899</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7145384228899</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="L34" t="n">
-        <v>259.7145384228899</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="M34" t="n">
-        <v>259.7145384228899</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="N34" t="n">
-        <v>259.7145384228899</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="O34" t="n">
-        <v>259.7145384228899</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="P34" t="n">
-        <v>259.7145384228899</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.7145384228899</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="R34" t="n">
         <v>260.0540801966771</v>
@@ -6895,13 +6895,13 @@
         <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.201979080992</v>
+        <v>46.20197908099199</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010584</v>
+        <v>38.51814573010583</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6935,25 @@
         <v>20.8368647496023</v>
       </c>
       <c r="J35" t="n">
-        <v>214.1616385483602</v>
+        <v>178.5009941413888</v>
       </c>
       <c r="K35" t="n">
-        <v>472.0178398246887</v>
+        <v>178.5009941413888</v>
       </c>
       <c r="L35" t="n">
-        <v>518.7386823054488</v>
+        <v>225.2218366221488</v>
       </c>
       <c r="M35" t="n">
-        <v>599.6005813923961</v>
+        <v>306.0837357090959</v>
       </c>
       <c r="N35" t="n">
-        <v>674.9284745280884</v>
+        <v>381.4116288447882</v>
       </c>
       <c r="O35" t="n">
-        <v>709.149109220756</v>
+        <v>415.6322635374559</v>
       </c>
       <c r="P35" t="n">
-        <v>709.149109220756</v>
+        <v>670.029787483584</v>
       </c>
       <c r="Q35" t="n">
         <v>850.5537443902422</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>771.101941468421</v>
+        <v>515.607901149912</v>
       </c>
       <c r="C36" t="n">
-        <v>771.101941468421</v>
+        <v>515.607901149912</v>
       </c>
       <c r="D36" t="n">
-        <v>771.101941468421</v>
+        <v>354.8277849109438</v>
       </c>
       <c r="E36" t="n">
-        <v>619.9703484952784</v>
+        <v>181.2645810323582</v>
       </c>
       <c r="F36" t="n">
-        <v>459.5426322125224</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G36" t="n">
-        <v>309.2955569856267</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H36" t="n">
-        <v>182.2899765959558</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I36" t="n">
-        <v>73.84208735960495</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J36" t="n">
         <v>20.8368647496023</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548265</v>
+        <v>58.80019076548261</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1331098938567</v>
+        <v>176.1331098938566</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978621</v>
+        <v>357.8097564978619</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086213</v>
+        <v>562.714732908621</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276556</v>
+        <v>694.4156725276554</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857555</v>
+        <v>778.0407857857552</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.101941468421</v>
+        <v>771.1019414684208</v>
       </c>
       <c r="R36" t="n">
-        <v>771.101941468421</v>
+        <v>771.1019414684208</v>
       </c>
       <c r="S36" t="n">
-        <v>771.101941468421</v>
+        <v>741.2485942145843</v>
       </c>
       <c r="T36" t="n">
-        <v>771.101941468421</v>
+        <v>741.2485942145843</v>
       </c>
       <c r="U36" t="n">
-        <v>771.101941468421</v>
+        <v>741.2485942145843</v>
       </c>
       <c r="V36" t="n">
-        <v>771.101941468421</v>
+        <v>741.2485942145843</v>
       </c>
       <c r="W36" t="n">
-        <v>771.101941468421</v>
+        <v>741.2485942145843</v>
       </c>
       <c r="X36" t="n">
-        <v>771.101941468421</v>
+        <v>741.2485942145843</v>
       </c>
       <c r="Y36" t="n">
-        <v>771.101941468421</v>
+        <v>515.607901149912</v>
       </c>
     </row>
     <row r="37">
@@ -7087,7 +7087,7 @@
         <v>20.8368647496023</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I37" t="n">
         <v>56.03780166411087</v>
@@ -7169,40 +7169,40 @@
         <v>20.8368647496023</v>
       </c>
       <c r="I38" t="n">
-        <v>20.8368647496023</v>
+        <v>51.57576979998703</v>
       </c>
       <c r="J38" t="n">
-        <v>214.1616385483602</v>
+        <v>244.9005435987449</v>
       </c>
       <c r="K38" t="n">
-        <v>214.1616385483602</v>
+        <v>244.9005435987449</v>
       </c>
       <c r="L38" t="n">
-        <v>472.0178398246887</v>
+        <v>291.6213860795049</v>
       </c>
       <c r="M38" t="n">
-        <v>552.879738911636</v>
+        <v>372.4832851664521</v>
       </c>
       <c r="N38" t="n">
-        <v>628.2076320473283</v>
+        <v>447.8111783021444</v>
       </c>
       <c r="O38" t="n">
-        <v>662.4282667399959</v>
+        <v>482.031812994812</v>
       </c>
       <c r="P38" t="n">
-        <v>740.8166819674516</v>
+        <v>670.029787483584</v>
       </c>
       <c r="Q38" t="n">
-        <v>921.3406388741098</v>
+        <v>850.5537443902422</v>
       </c>
       <c r="R38" t="n">
-        <v>997.7464855192727</v>
+        <v>926.959591035405</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.843237480115</v>
+        <v>971.0563429962473</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>459.5426322125224</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C39" t="n">
-        <v>459.5426322125224</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D39" t="n">
-        <v>459.5426322125224</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E39" t="n">
-        <v>459.5426322125224</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F39" t="n">
-        <v>459.5426322125224</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G39" t="n">
-        <v>309.2955569856267</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H39" t="n">
-        <v>182.2899765959558</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I39" t="n">
-        <v>73.84208735960495</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J39" t="n">
         <v>20.8368647496023</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548265</v>
+        <v>58.80019076548261</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1331098938567</v>
+        <v>176.1331098938566</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978621</v>
+        <v>357.8097564978619</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086213</v>
+        <v>562.714732908621</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276556</v>
+        <v>694.4156725276554</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857555</v>
+        <v>778.0407857857552</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857555</v>
+        <v>778.0407857857552</v>
       </c>
       <c r="R39" t="n">
-        <v>778.0407857857555</v>
+        <v>778.0407857857552</v>
       </c>
       <c r="S39" t="n">
-        <v>778.0407857857555</v>
+        <v>778.0407857857552</v>
       </c>
       <c r="T39" t="n">
-        <v>778.0407857857555</v>
+        <v>560.8984387095024</v>
       </c>
       <c r="U39" t="n">
-        <v>778.0407857857555</v>
+        <v>321.2741260863826</v>
       </c>
       <c r="V39" t="n">
-        <v>778.0407857857555</v>
+        <v>283.928591385995</v>
       </c>
       <c r="W39" t="n">
-        <v>685.1833252771949</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X39" t="n">
-        <v>685.1833252771949</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y39" t="n">
-        <v>459.5426322125224</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="40">
@@ -7312,49 +7312,49 @@
         <v>20.8368647496023</v>
       </c>
       <c r="D40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="E40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="F40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="G40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="H40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="I40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="J40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="K40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="L40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="M40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="N40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="O40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S40" t="n">
         <v>56.03780166411087</v>
@@ -7403,28 +7403,28 @@
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
         <v>190.6518442323785</v>
       </c>
       <c r="K41" t="n">
-        <v>190.6518442323785</v>
+        <v>422.5915955308617</v>
       </c>
       <c r="L41" t="n">
-        <v>475.9723582364599</v>
+        <v>469.3124380116217</v>
       </c>
       <c r="M41" t="n">
-        <v>556.8342573234071</v>
+        <v>550.1743370985688</v>
       </c>
       <c r="N41" t="n">
-        <v>870.7618219824208</v>
+        <v>679.6515597895268</v>
       </c>
       <c r="O41" t="n">
-        <v>1143.58212819841</v>
+        <v>952.4718660055157</v>
       </c>
       <c r="P41" t="n">
         <v>1176.130484901259</v>
@@ -7433,7 +7433,7 @@
         <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.58247835231</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S41" t="n">
         <v>1384.940325262768</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>189.5190873303589</v>
+        <v>188.4936917667613</v>
       </c>
       <c r="C42" t="n">
-        <v>189.5190873303589</v>
+        <v>188.4936917667613</v>
       </c>
       <c r="D42" t="n">
-        <v>189.5190873303589</v>
+        <v>188.4936917667613</v>
       </c>
       <c r="E42" t="n">
-        <v>189.5190873303589</v>
+        <v>188.4936917667613</v>
       </c>
       <c r="F42" t="n">
-        <v>189.5190873303589</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G42" t="n">
-        <v>189.5190873303589</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H42" t="n">
-        <v>189.5190873303589</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I42" t="n">
-        <v>81.071198094008</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988572</v>
+        <v>66.02930149988568</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3622206282598</v>
+        <v>183.3622206282597</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322651</v>
+        <v>365.038867232265</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9438436430244</v>
+        <v>569.9438436430241</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6447832620587</v>
+        <v>701.6447832620585</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2698965201586</v>
+        <v>778.3310522028239</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2698965201586</v>
+        <v>778.3310522028239</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2698965201586</v>
+        <v>778.3310522028239</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2698965201586</v>
+        <v>778.3310522028239</v>
       </c>
       <c r="U42" t="n">
-        <v>660.6221327192799</v>
+        <v>778.3310522028239</v>
       </c>
       <c r="V42" t="n">
-        <v>660.6221327192799</v>
+        <v>677.4002554197737</v>
       </c>
       <c r="W42" t="n">
-        <v>634.6677747783349</v>
+        <v>408.0016861500649</v>
       </c>
       <c r="X42" t="n">
-        <v>415.1597803950312</v>
+        <v>188.4936917667613</v>
       </c>
       <c r="Y42" t="n">
-        <v>189.5190873303589</v>
+        <v>188.4936917667613</v>
       </c>
     </row>
     <row r="43">
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="L43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="M43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="N43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="O43" t="n">
-        <v>124.6176159598925</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="P43" t="n">
-        <v>124.6176159598925</v>
+        <v>75.85388492395001</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.6176159598925</v>
+        <v>75.85388492395001</v>
       </c>
       <c r="R43" t="n">
-        <v>124.6176159598925</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="S43" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="T43" t="n">
         <v>130.133623560695</v>
@@ -7606,13 +7606,13 @@
         <v>77.86490262931778</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X43" t="n">
-        <v>46.96538615316654</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.59519759046108</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753167</v>
+        <v>818.426354275317</v>
       </c>
       <c r="C44" t="n">
-        <v>708.127638956425</v>
+        <v>708.1276389564252</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465753</v>
+        <v>610.3878506465755</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706557</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660724</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
         <v>190.6518442323785</v>
       </c>
       <c r="K44" t="n">
-        <v>422.5915955308618</v>
+        <v>422.5915955308617</v>
       </c>
       <c r="L44" t="n">
-        <v>673.2468194231604</v>
+        <v>469.3124380116217</v>
       </c>
       <c r="M44" t="n">
-        <v>754.1087185101077</v>
+        <v>604.3236666538346</v>
       </c>
       <c r="N44" t="n">
-        <v>829.4366116458</v>
+        <v>918.2512313128481</v>
       </c>
       <c r="O44" t="n">
-        <v>1102.256917861789</v>
+        <v>952.4718660055157</v>
       </c>
       <c r="P44" t="n">
-        <v>1325.915536757532</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q44" t="n">
         <v>1325.915536757532</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.58247835231</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S44" t="n">
         <v>1384.940325262768</v>
@@ -7685,13 +7685,13 @@
         <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582954</v>
+        <v>1215.523540582955</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785752</v>
+        <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181019</v>
+        <v>952.8480423181021</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>208.0767784836788</v>
+        <v>391.7459896036597</v>
       </c>
       <c r="C45" t="n">
-        <v>208.0767784836788</v>
+        <v>391.7459896036597</v>
       </c>
       <c r="D45" t="n">
-        <v>208.0767784836788</v>
+        <v>391.7459896036597</v>
       </c>
       <c r="E45" t="n">
-        <v>208.0767784836788</v>
+        <v>391.7459896036597</v>
       </c>
       <c r="F45" t="n">
-        <v>208.0767784836788</v>
+        <v>231.3182733209038</v>
       </c>
       <c r="G45" t="n">
-        <v>208.0767784836788</v>
+        <v>81.07119809400803</v>
       </c>
       <c r="H45" t="n">
-        <v>81.071198094008</v>
+        <v>81.07119809400803</v>
       </c>
       <c r="I45" t="n">
-        <v>81.071198094008</v>
+        <v>81.07119809400803</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988572</v>
+        <v>66.02930149988568</v>
       </c>
       <c r="L45" t="n">
-        <v>183.3622206282598</v>
+        <v>183.3622206282597</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322651</v>
+        <v>365.038867232265</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430244</v>
+        <v>569.9438436430241</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6447832620587</v>
+        <v>701.6447832620585</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201586</v>
+        <v>778.3310522028239</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201586</v>
+        <v>778.3310522028239</v>
       </c>
       <c r="S45" t="n">
-        <v>591.7438446817704</v>
+        <v>657.3246601677246</v>
       </c>
       <c r="T45" t="n">
-        <v>453.5391308079274</v>
+        <v>657.3246601677246</v>
       </c>
       <c r="U45" t="n">
-        <v>453.5391308079274</v>
+        <v>417.7003475446047</v>
       </c>
       <c r="V45" t="n">
-        <v>453.5391308079274</v>
+        <v>417.7003475446047</v>
       </c>
       <c r="W45" t="n">
-        <v>427.5847728669825</v>
+        <v>391.7459896036597</v>
       </c>
       <c r="X45" t="n">
-        <v>208.0767784836788</v>
+        <v>391.7459896036597</v>
       </c>
       <c r="Y45" t="n">
-        <v>208.0767784836788</v>
+        <v>391.7459896036597</v>
       </c>
     </row>
     <row r="46">
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400536</v>
+        <v>56.32656119962633</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.133623560695</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.133623560695</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.133623560695</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.133623560695</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.133623560695</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.133623560695</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.133623560695</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.133623560695</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.133623560695</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.133623560695</v>
       </c>
       <c r="M46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.133623560695</v>
       </c>
       <c r="N46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.133623560695</v>
       </c>
       <c r="O46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.133623560695</v>
       </c>
       <c r="P46" t="n">
         <v>130.133623560695</v>
@@ -7843,13 +7843,13 @@
         <v>77.86490262931778</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
   </sheetData>
@@ -8535,16 +8535,16 @@
         <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
         <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>163.3068757699624</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>177.1666678622357</v>
+        <v>177.037405250518</v>
       </c>
       <c r="P9" t="n">
         <v>166.6480266854964</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9012,10 +9012,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813100001</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841512</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1370682466385</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -23258,19 +23258,19 @@
         <v>195.9389762247654</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>91.77020698693362</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085682</v>
+        <v>4.832714589321228</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869455</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G11" t="n">
-        <v>238.2715224111211</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929891</v>
+        <v>16.733281229299</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675137</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958187</v>
       </c>
       <c r="V11" t="n">
         <v>142.7315194560841</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726989</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416382</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653819</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247655</v>
+        <v>7.441042905518344</v>
       </c>
       <c r="C14" t="n">
         <v>172.057233228111</v>
@@ -23504,16 +23504,16 @@
         <v>193.3306479085683</v>
       </c>
       <c r="F14" t="n">
-        <v>36.55305216769847</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
         <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
-        <v>63.19178968016868</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240821</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,25 +23540,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929899</v>
+        <v>16.73328122929902</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538033</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675141</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958189</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>60.91728561586483</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>204.137303265382</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286627.8984323494</v>
+        <v>286627.8984323496</v>
       </c>
       <c r="C2" t="n">
-        <v>286627.8984323495</v>
+        <v>286627.8984323496</v>
       </c>
       <c r="D2" t="n">
         <v>286793.4276087238</v>
@@ -26323,22 +26323,22 @@
         <v>246914.0143434687</v>
       </c>
       <c r="F2" t="n">
-        <v>246914.0143434688</v>
+        <v>246914.0143434686</v>
       </c>
       <c r="G2" t="n">
-        <v>287208.5283790241</v>
+        <v>287208.5283790244</v>
       </c>
       <c r="H2" t="n">
         <v>287208.5283790244</v>
       </c>
       <c r="I2" t="n">
-        <v>287208.5283790243</v>
+        <v>287208.5283790244</v>
       </c>
       <c r="J2" t="n">
         <v>287208.5283790239</v>
       </c>
       <c r="K2" t="n">
-        <v>287208.528379024</v>
+        <v>287208.5283790238</v>
       </c>
       <c r="L2" t="n">
         <v>287208.5283790246</v>
@@ -26347,7 +26347,7 @@
         <v>287208.5283790241</v>
       </c>
       <c r="N2" t="n">
-        <v>287208.5283790241</v>
+        <v>287208.5283790242</v>
       </c>
       <c r="O2" t="n">
         <v>287208.528379024</v>
@@ -26372,13 +26372,13 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787142</v>
+        <v>279126.115178714</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913329</v>
+        <v>95439.52541913325</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262466</v>
+        <v>96101.69331262461</v>
       </c>
       <c r="M3" t="n">
         <v>46197.3662923228</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924379</v>
+        <v>72254.91485924383</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>284613.7444428302</v>
       </c>
       <c r="F4" t="n">
-        <v>284613.7444428301</v>
+        <v>284613.7444428302</v>
       </c>
       <c r="G4" t="n">
         <v>355221.612486052</v>
@@ -26442,7 +26442,7 @@
         <v>355970.6392489283</v>
       </c>
       <c r="K4" t="n">
-        <v>355970.6392489283</v>
+        <v>355970.6392489284</v>
       </c>
       <c r="L4" t="n">
         <v>355955.8492815497</v>
@@ -26451,7 +26451,7 @@
         <v>355145.9119082312</v>
       </c>
       <c r="N4" t="n">
-        <v>355145.9119082312</v>
+        <v>355145.9119082313</v>
       </c>
       <c r="O4" t="n">
         <v>355532.9745719489</v>
@@ -26476,25 +26476,25 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.9569377478</v>
+        <v>28642.95693774778</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.95693774778</v>
       </c>
       <c r="G5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582417</v>
       </c>
       <c r="H5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582417</v>
       </c>
       <c r="I5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582417</v>
       </c>
       <c r="J5" t="n">
         <v>47449.6772201635</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.67722016352</v>
+        <v>47449.6772201635</v>
       </c>
       <c r="L5" t="n">
         <v>47324.7475828481</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145502.8183936258</v>
+        <v>-145507.2847778308</v>
       </c>
       <c r="C6" t="n">
-        <v>-145502.8183936258</v>
+        <v>-145507.2847778309</v>
       </c>
       <c r="D6" t="n">
-        <v>-146311.0913817403</v>
+        <v>-146314.2844645888</v>
       </c>
       <c r="E6" t="n">
-        <v>-345468.8022158234</v>
+        <v>-345778.7600160967</v>
       </c>
       <c r="F6" t="n">
-        <v>-66342.68703710906</v>
+        <v>-66652.64483738273</v>
       </c>
       <c r="G6" t="n">
-        <v>-202124.9482919853</v>
+        <v>-202124.948291985</v>
       </c>
       <c r="H6" t="n">
         <v>-106685.4228728518</v>
       </c>
       <c r="I6" t="n">
-        <v>-106685.4228728519</v>
+        <v>-106685.4228728518</v>
       </c>
       <c r="J6" t="n">
         <v>-259708.0710969472</v>
       </c>
       <c r="K6" t="n">
-        <v>-116211.7880900678</v>
+        <v>-116211.7880900681</v>
       </c>
       <c r="L6" t="n">
         <v>-212173.7617979978</v>
       </c>
       <c r="M6" t="n">
-        <v>-155048.0454202173</v>
+        <v>-155048.0454202172</v>
       </c>
       <c r="N6" t="n">
         <v>-108850.6791278944</v>
       </c>
       <c r="O6" t="n">
-        <v>-184376.4888810419</v>
+        <v>-184376.488881042</v>
       </c>
       <c r="P6" t="n">
         <v>-112121.5740217982</v>
@@ -26698,13 +26698,13 @@
         <v>178.1482641530679</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
         <v>213.484750524001</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
     </row>
     <row r="4">
@@ -26796,28 +26796,28 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.497933319247</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.497933319247</v>
       </c>
       <c r="J4" t="n">
         <v>448.9587426892758</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892759</v>
+        <v>448.9587426892758</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492624</v>
+        <v>445.7594930492623</v>
       </c>
       <c r="M4" t="n">
         <v>260.4608093700288</v>
@@ -26826,10 +26826,10 @@
         <v>260.4608093700288</v>
       </c>
       <c r="O4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500671</v>
       </c>
       <c r="P4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500671</v>
       </c>
     </row>
   </sheetData>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929175</v>
+        <v>63.13594470929178</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003827</v>
+        <v>90.36388418003833</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.2171558310243</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C8" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D8" t="n">
-        <v>337.7721596422273</v>
+        <v>337.9020750954183</v>
       </c>
       <c r="E8" t="n">
         <v>371.4789120616362</v>
@@ -27944,13 +27944,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>145.7629687550784</v>
       </c>
       <c r="H9" t="n">
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>111.6565698077035</v>
+        <v>112.0379203647931</v>
       </c>
       <c r="J9" t="n">
         <v>73.03491363274843</v>
@@ -27974,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>31.44843229210258</v>
       </c>
       <c r="R9" t="n">
         <v>145.0317031582867</v>
@@ -27983,7 +27983,7 @@
         <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>213.0301613335635</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
@@ -27995,7 +27995,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
-        <v>214.1136647994571</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
         <v>223.3842861340256</v>
@@ -28114,7 +28114,7 @@
         <v>178.1482641530679</v>
       </c>
       <c r="K11" t="n">
-        <v>6.78521280989328</v>
+        <v>6.785212809893746</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28190,7 +28190,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,16 +28214,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.092858000757161</v>
+        <v>3.092858000757275</v>
       </c>
       <c r="T12" t="n">
-        <v>26.47299028624312</v>
+        <v>117.4426751313994</v>
       </c>
       <c r="U12" t="n">
-        <v>134.3981482091459</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V12" t="n">
         <v>178.1482641530679</v>
@@ -28251,7 +28251,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -28263,34 +28263,34 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I13" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="J13" t="n">
-        <v>120.239607582909</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1482641530679</v>
+        <v>84.88378348727593</v>
       </c>
       <c r="M13" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N13" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="O13" t="n">
-        <v>37.4788839977768</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="P13" t="n">
-        <v>158.1503571712857</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530679</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
         <v>178.1482641530679</v>
@@ -28351,7 +28351,7 @@
         <v>178.1482641530679</v>
       </c>
       <c r="K14" t="n">
-        <v>19.41168532311824</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L14" t="n">
         <v>141.3051631366612</v>
@@ -28366,7 +28366,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530679</v>
+        <v>19.4116853231187</v>
       </c>
       <c r="Q14" t="n">
         <v>178.1482641530679</v>
@@ -28412,10 +28412,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>146.4171406317793</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>148.7446044746268</v>
@@ -28427,7 +28427,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530679</v>
+        <v>138.3184791497391</v>
       </c>
       <c r="T15" t="n">
         <v>178.1482641530679</v>
@@ -28469,10 +28469,10 @@
         <v>178.1482641530679</v>
       </c>
       <c r="X15" t="n">
-        <v>28.81498112022345</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.88635281477846</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="16">
@@ -28488,7 +28488,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.1482641530679</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28506,28 +28506,28 @@
         <v>178.1482641530679</v>
       </c>
       <c r="J16" t="n">
-        <v>120.239607582909</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K16" t="n">
+        <v>67.02998013919002</v>
+      </c>
+      <c r="L16" t="n">
         <v>178.1482641530679</v>
       </c>
-      <c r="L16" t="n">
-        <v>32.15181624817889</v>
-      </c>
       <c r="M16" t="n">
-        <v>25.21686539889346</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="N16" t="n">
-        <v>58.61490893927096</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O16" t="n">
-        <v>178.1482641530679</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P16" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.1482641530679</v>
+        <v>148.1597905653614</v>
       </c>
       <c r="R16" t="n">
         <v>178.1482641530679</v>
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78161896459405</v>
+        <v>76.78161896459412</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300965</v>
+        <v>6.72719214630105</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>203.5899056703359</v>
+        <v>15.09197235108886</v>
       </c>
       <c r="Q17" t="n">
-        <v>179.1282205130896</v>
+        <v>245.3472348708374</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="18">
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>71.97018333875133</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28655,16 +28655,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
         <v>191.5907913200043</v>
@@ -28697,10 +28697,10 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>48.73013617764146</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
-        <v>52.15098759615509</v>
+        <v>81.48401794479039</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28746,22 +28746,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28770,7 +28770,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S19" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T19" t="n">
         <v>223.761558450323</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459406</v>
+        <v>232.4171167980095</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300993</v>
+        <v>6.72719214630105</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108879</v>
+        <v>15.09197235108886</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.3472348708371</v>
+        <v>89.71173703742204</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="21">
@@ -28877,31 +28877,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7355245857741</v>
+        <v>16.19599249263231</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>3.092858000757161</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T21" t="n">
-        <v>132.1973538104601</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
         <v>237.2280694968886</v>
@@ -28983,22 +28983,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O22" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024888</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>241.0097692154761</v>
+        <v>264.5852354411525</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78161896459406</v>
+        <v>76.78161896459412</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300993</v>
+        <v>6.72719214630105</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,34 +29077,34 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>108.5981149453011</v>
+        <v>15.09197235108886</v>
       </c>
       <c r="Q23" t="n">
         <v>278.2096703566691</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="24">
@@ -29132,13 +29132,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
         <v>191.5907913200043</v>
@@ -29171,19 +29171,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>212.7883464925345</v>
+        <v>48.73013617764158</v>
       </c>
       <c r="V24" t="n">
-        <v>52.15098759615515</v>
+        <v>207.2249217077447</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.20665025776455</v>
       </c>
       <c r="X24" t="n">
-        <v>28.81498112022351</v>
+        <v>28.81498112022356</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.88635281477852</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29220,22 +29220,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O25" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024888</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29363,10 +29363,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>104.2468578410488</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>125.7355245857741</v>
@@ -29375,7 +29375,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>17.44236438422791</v>
       </c>
       <c r="S27" t="n">
         <v>191.5907913200043</v>
@@ -29408,13 +29408,13 @@
         <v>213.484750524001</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X27" t="n">
         <v>213.484750524001</v>
@@ -29433,7 +29433,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>210.760825908347</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29457,22 +29457,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M28" t="n">
+        <v>102.7822438366236</v>
+      </c>
+      <c r="N28" t="n">
+        <v>16.52015736928139</v>
+      </c>
+      <c r="O28" t="n">
+        <v>37.47888399777683</v>
+      </c>
+      <c r="P28" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="N28" t="n">
-        <v>16.52015736928136</v>
-      </c>
-      <c r="O28" t="n">
-        <v>37.4788839977768</v>
-      </c>
-      <c r="P28" t="n">
-        <v>58.47859890024888</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2169859636892</v>
@@ -29594,7 +29594,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29606,13 +29606,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I30" t="n">
-        <v>34.80993998689593</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>213.484750524001</v>
@@ -29657,7 +29657,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>129.8588622297366</v>
       </c>
     </row>
     <row r="31">
@@ -29685,31 +29685,31 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H31" t="n">
-        <v>165.8243976546666</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I31" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
-        <v>176.8052711181665</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K31" t="n">
-        <v>67.02998013918999</v>
+        <v>158.6960143902453</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O31" t="n">
-        <v>213.484750524001</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024888</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2169859636892</v>
@@ -29773,10 +29773,10 @@
         <v>214.3124603908652</v>
       </c>
       <c r="K32" t="n">
-        <v>213.6262506492496</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407513</v>
       </c>
       <c r="M32" t="n">
         <v>214.3124603908652</v>
@@ -29794,7 +29794,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
-        <v>194.8815453823669</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="S32" t="n">
         <v>214.3124603908652</v>
@@ -29831,13 +29831,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29846,10 +29846,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,19 +29870,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
         <v>214.3124603908652</v>
       </c>
       <c r="U33" t="n">
-        <v>12.72951684124058</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="V33" t="n">
         <v>214.3124603908652</v>
@@ -29891,7 +29891,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908652</v>
+        <v>75.74829629863908</v>
       </c>
       <c r="Y33" t="n">
         <v>214.3124603908652</v>
@@ -29904,16 +29904,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>214.3124603908652</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3124603908652</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>214.3124603908652</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>214.3124603908652</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -29931,28 +29931,28 @@
         <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
-        <v>67.02998013918999</v>
+        <v>206.5944256642728</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O34" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P34" t="n">
-        <v>58.47859890024888</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.2169859636892</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R34" t="n">
-        <v>203.7729326443081</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
         <v>214.3124603908652</v>
@@ -30007,28 +30007,28 @@
         <v>241.0097692154761</v>
       </c>
       <c r="J35" t="n">
+        <v>236.038315319934</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.72719214630105</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="K35" t="n">
-        <v>267.1880015163297</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>15.09197235108879</v>
-      </c>
       <c r="Q35" t="n">
-        <v>232.5447018550848</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="R35" t="n">
         <v>272.0591682562687</v>
@@ -30068,25 +30068,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>22.20729479638842</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5907913200043</v>
+        <v>162.0359775387061</v>
       </c>
       <c r="T36" t="n">
         <v>214.9709236054903</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30159,31 +30159,31 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H37" t="n">
-        <v>201.3808995885136</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I37" t="n">
-        <v>164.852968067965</v>
+        <v>200.4094700018121</v>
       </c>
       <c r="J37" t="n">
         <v>120.239607582909</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O37" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P37" t="n">
-        <v>58.47859890024888</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
@@ -30241,16 +30241,16 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
-        <v>241.0097692154761</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J38" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146300993</v>
+        <v>6.72719214630105</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2680391874428</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>94.27218975255914</v>
+        <v>204.9889162791413</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0591682562687</v>
@@ -30274,10 +30274,10 @@
         <v>272.0591682562687</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4658813998193</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505414926498</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30314,16 +30314,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161083</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890777</v>
@@ -30353,22 +30353,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>203.6768415620185</v>
       </c>
       <c r="W39" t="n">
-        <v>174.7756976735366</v>
+        <v>6.243774206982835</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30384,7 +30384,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>145.1826502507107</v>
+        <v>180.7391521845578</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
@@ -30405,22 +30405,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K40" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O40" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P40" t="n">
-        <v>58.47859890024888</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
@@ -30429,7 +30429,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S40" t="n">
-        <v>270.9945463000277</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T40" t="n">
         <v>223.761558450323</v>
@@ -30484,22 +30484,22 @@
         <v>241.009769215476</v>
       </c>
       <c r="K41" t="n">
-        <v>6.727192146300993</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L41" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>241.009769215476</v>
+        <v>54.69629248006642</v>
       </c>
       <c r="O41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>47.96910033376442</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Q41" t="n">
         <v>241.009769215476</v>
@@ -30548,7 +30548,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>148.7446044746268</v>
@@ -30557,10 +30557,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.47517038390263</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890777</v>
@@ -30593,19 +30593,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>113.8267833340187</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>140.7274321001825</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>232.1850200280301</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30642,34 +30642,34 @@
         <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O43" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P43" t="n">
-        <v>58.47859890024888</v>
+        <v>106.7492144961526</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4299611556341</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S43" t="n">
+        <v>235.4380443661806</v>
+      </c>
+      <c r="T43" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="T43" t="n">
-        <v>223.761558450323</v>
       </c>
       <c r="U43" t="n">
         <v>241.009769215476</v>
@@ -30681,10 +30681,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="X43" t="n">
-        <v>241.009769215476</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>241.009769215476</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="I44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
         <v>241.009769215476</v>
@@ -30724,22 +30724,22 @@
         <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9943246581198</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>54.69629248006643</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="O44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.71173703742198</v>
+        <v>241.009769215476</v>
       </c>
       <c r="R44" t="n">
         <v>241.009769215476</v>
@@ -30785,13 +30785,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
         <v>107.3634103439874</v>
@@ -30818,19 +30818,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>71.79446320525598</v>
       </c>
       <c r="T45" t="n">
-        <v>78.14825687038578</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -30839,7 +30839,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>206.162966842363</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>241.009769215476</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
@@ -30879,22 +30879,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919002</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O46" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P46" t="n">
-        <v>161.5772333211475</v>
+        <v>58.47859890024891</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2169859636892</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246054</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M11" t="n">
-        <v>71.4163207803286</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556016</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521931</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178816</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R11" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729619</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884583</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K12" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133248</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O12" t="n">
-        <v>51.7758874713402</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971358</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014375</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N13" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837954</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R13" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679428</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246054</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M14" t="n">
-        <v>71.4163207803286</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556016</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521931</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178816</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R14" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729619</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884583</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K15" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133248</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O15" t="n">
-        <v>51.7758874713402</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971358</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014375</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N16" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837954</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R16" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679428</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246056</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032863</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556019</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521934</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178818</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610824</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168793</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884583</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M18" t="n">
-        <v>55.1384043213325</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427552</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935659</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971363</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014378</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837955</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679431</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590778</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J20" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P20" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178815</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R20" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884582</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K21" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N22" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837953</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J23" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P23" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178815</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R23" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884582</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K24" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N25" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837953</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J26" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P26" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178815</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R26" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884582</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K27" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N28" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837953</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J29" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P29" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178815</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R29" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884582</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K30" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N31" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837953</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I32" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J32" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P32" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178815</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R32" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884582</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K33" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R33" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H34" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N34" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837953</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I35" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J35" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P35" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178815</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R35" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884582</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K36" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R36" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H37" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N37" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837953</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I38" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J38" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P38" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178815</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R38" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884582</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K39" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R39" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H40" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N40" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837953</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I41" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J41" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P41" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178815</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R41" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884582</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K42" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R42" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N43" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837953</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631728</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217844</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501023</v>
       </c>
       <c r="J44" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645936</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246048</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727844</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803285</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401888</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556008</v>
       </c>
       <c r="P44" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521924</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178815</v>
+        <v>43.9210906617881</v>
       </c>
       <c r="R44" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318167</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610808</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705381</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122624</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729609</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884582</v>
+        <v>20.5597432488458</v>
       </c>
       <c r="K45" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000166</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447571</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133241</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427542</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134013</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862162</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795497</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935652</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971347</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773293</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014369</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602954</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752829</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600452</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786388</v>
       </c>
       <c r="N46" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309187</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837953</v>
+        <v>25.7870931083795</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545173</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542639</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629243</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679419</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.00995128367959076</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35146,13 +35146,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.129915453191039</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>3.069987028295762</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3.199249640013477</v>
       </c>
       <c r="P9" t="n">
         <v>3.199249640013477</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884739</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05802066359229406</v>
+        <v>0.05802066359269599</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258595</v>
+        <v>47.19277018258587</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641136</v>
+        <v>81.67868594641126</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514378</v>
+        <v>76.08878094514368</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4979333192472</v>
+        <v>188.497933319247</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0562918019792</v>
+        <v>163.056291801979</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564596</v>
+        <v>88.43652711564584</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L12" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M12" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192472</v>
+        <v>188.497933319247</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,46 +35547,46 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.96561390235718</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.22138193462129</v>
+        <v>39.22138193462123</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.3238664984013</v>
       </c>
       <c r="I13" t="n">
-        <v>13.2952960851029</v>
+        <v>13.29529608510284</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90865657015891</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>145.9964479048891</v>
+        <v>52.731967239097</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>161.6281067837866</v>
+        <v>161.6281067837865</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.669380155291</v>
       </c>
       <c r="P13" t="n">
-        <v>99.67175827103679</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937872</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884738</v>
+        <v>101.3666451884737</v>
       </c>
       <c r="K14" t="n">
-        <v>12.68449317681725</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641136</v>
+        <v>81.67868594641126</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514378</v>
+        <v>76.08878094514368</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936133</v>
+        <v>34.56629766936125</v>
       </c>
       <c r="P14" t="n">
-        <v>163.0562918019791</v>
+        <v>4.319712972029849</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564587</v>
+        <v>88.43652711564582</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L15" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M15" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,7 +35784,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.96561390235715</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>13.29529608510281</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>57.90865657015888</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1182840138779</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>145.9964479048889</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N16" t="n">
-        <v>42.09475156998961</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.669380155291</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.669665252819</v>
+        <v>119.6696652528189</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937863</v>
+        <v>20.94280460167219</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150842</v>
+        <v>56.43790171150835</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,34 +35887,34 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258597</v>
+        <v>47.19277018258587</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641139</v>
+        <v>81.67868594641126</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514368</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936136</v>
+        <v>34.56629766936125</v>
       </c>
       <c r="P17" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.41648347566763</v>
+        <v>155.6354978334154</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446176</v>
+        <v>102.5661255446175</v>
       </c>
       <c r="S17" t="n">
-        <v>69.9306763685363</v>
+        <v>69.93067636853623</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L18" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M18" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O18" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43790171150842</v>
+        <v>56.43790171150835</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>155.6354978334153</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258595</v>
+        <v>47.19277018258587</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641126</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514368</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936132</v>
+        <v>34.56629766936125</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>155.6354978334151</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5661255446176</v>
+        <v>102.5661255446175</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853628</v>
+        <v>69.93067636853623</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716522</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433472</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543485</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M21" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O21" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>23.57546622567638</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,34 +36361,34 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258595</v>
+        <v>47.19277018258587</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641126</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514368</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936132</v>
+        <v>34.56629766936125</v>
       </c>
       <c r="P23" t="n">
-        <v>93.50614259421231</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4979333192471</v>
+        <v>188.497933319247</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446176</v>
+        <v>102.5661255446175</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.93067636853623</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98178952716522</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433472</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L24" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192471</v>
+        <v>188.497933319247</v>
       </c>
       <c r="O24" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.7031315594068</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583776999</v>
       </c>
       <c r="L26" t="n">
-        <v>260.6775207065869</v>
+        <v>260.6775207065868</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704123</v>
+        <v>295.1634364704122</v>
       </c>
       <c r="N26" t="n">
         <v>289.5735314691447</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933622</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729121</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865789</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163411</v>
+        <v>18.60320514163408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L27" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M27" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O27" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>44.30364493637466</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>188.2678851251075</v>
+        <v>77.56537843773008</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0061516237521</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.703131559407</v>
+        <v>136.7031315594069</v>
       </c>
       <c r="K29" t="n">
         <v>206.7575583777</v>
       </c>
       <c r="L29" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065869</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704123</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691447</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933622</v>
       </c>
       <c r="P29" t="n">
         <v>198.3927781729122</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163416</v>
+        <v>18.60320514163413</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L30" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M30" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O30" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36981,16 +36981,16 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.66035286933443</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>56.56566353525754</v>
+        <v>93.24514294109204</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>91.66603425105525</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>176.0058665262242</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262712</v>
+        <v>137.5308414262711</v>
       </c>
       <c r="K32" t="n">
-        <v>206.8990585029487</v>
+        <v>207.5852682445642</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734512</v>
+        <v>241.3881058233372</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372766</v>
+        <v>295.9911463372765</v>
       </c>
       <c r="N32" t="n">
-        <v>290.401241336009</v>
+        <v>290.4012413360089</v>
       </c>
       <c r="O32" t="n">
         <v>248.8787580602265</v>
@@ -37090,7 +37090,7 @@
         <v>124.6007233534432</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>19.43091500849835</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L33" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M33" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O33" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,16 +37200,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.69553972589713</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.85527941889288</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>69.12981014015452</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>72.63631917864024</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>139.5644455250828</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>87.09547442717599</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3429714886739719</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,34 +37303,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>159.2566963553399</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4608093700288</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258595</v>
+        <v>47.19277018258587</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641126</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514368</v>
       </c>
       <c r="O35" t="n">
-        <v>34.56629766936132</v>
+        <v>34.56629766936125</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>256.9671959051799</v>
       </c>
       <c r="Q35" t="n">
-        <v>142.8329648176628</v>
+        <v>182.3474312188467</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390187</v>
+        <v>77.17762287390184</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782054</v>
+        <v>44.54217369782052</v>
       </c>
       <c r="T35" t="n">
         <v>49.59328685644947</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L36" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M36" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O36" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37455,10 +37455,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.04939904079265</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2775492916747</v>
+        <v>195.2775492916746</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4608093700288</v>
+        <v>47.19277018258587</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641126</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514368</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936132</v>
+        <v>34.56629766936125</v>
       </c>
       <c r="P38" t="n">
-        <v>79.18021740147036</v>
+        <v>189.8969439280525</v>
       </c>
       <c r="Q38" t="n">
         <v>182.3474312188467</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390187</v>
+        <v>77.17762287390184</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782054</v>
+        <v>44.54217369782052</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L39" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M39" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O39" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.228150250882</v>
+        <v>164.2281502508819</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>234.282577069175</v>
       </c>
       <c r="L41" t="n">
-        <v>288.202539398062</v>
+        <v>47.19277018258587</v>
       </c>
       <c r="M41" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641126</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0985501606198</v>
+        <v>130.7850734252101</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5760668848374</v>
+        <v>275.5760668848373</v>
       </c>
       <c r="P41" t="n">
-        <v>32.87712798267563</v>
+        <v>225.9177968643872</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2980321780541</v>
+        <v>151.298032178054</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310919</v>
+        <v>46.12822383310916</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702786</v>
+        <v>13.49277465702785</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565678</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L42" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M42" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O42" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.568099363062</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37953,19 +37953,19 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>48.27061559590368</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.57980805984191</v>
       </c>
       <c r="S43" t="n">
-        <v>5.571724849295477</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.24821076515303</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37977,10 +37977,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>19.09031380723351</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>23.86849640130762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.228150250882</v>
+        <v>164.2281502508819</v>
       </c>
       <c r="K44" t="n">
         <v>234.282577069175</v>
       </c>
       <c r="L44" t="n">
-        <v>253.1870948407057</v>
+        <v>47.19277018258587</v>
       </c>
       <c r="M44" t="n">
-        <v>81.67868594641135</v>
+        <v>136.3749784264777</v>
       </c>
       <c r="N44" t="n">
-        <v>76.08878094514377</v>
+        <v>317.0985501606197</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848374</v>
+        <v>34.56629766936125</v>
       </c>
       <c r="P44" t="n">
         <v>225.9177968643872</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.298032178054</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310919</v>
+        <v>46.12822383310916</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702786</v>
+        <v>13.49277465702785</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565678</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543466</v>
       </c>
       <c r="L45" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N45" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O45" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181801</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,10 +38148,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>28.54604617739491</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>74.55258824350369</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
